--- a/medicine/Enfance/Glendon_Swarthout/Glendon_Swarthout.xlsx
+++ b/medicine/Enfance/Glendon_Swarthout/Glendon_Swarthout.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glendon Swarthout, né le 8 avril 1918 à Pinckney, dans le Michigan, et mort le 23 septembre 1992 à Scottsdale, en Arizona, est un écrivain américain, auteur de western et de roman policier.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Professeur d'anglais à l'université Concordia Ann Arbour, dans le Michigan, il publie son premier roman, Willow Run, en 1943. Il écrit ensuite pour le théâtre. En 1958, Ceux de Cordura (They Came to Cordura) lui vaut la notoriété quand ce roman est adapté au cinéma l'année suivante, sous le titre éponyme, par Robert Rossen.
 Where the Boys Are, publié en 1960, sera adapté à deux reprises : d'abord par Henry Levin sous le  même titre en 1960, puis par Hy Averback sous le titre Where the Boys Are '84 en 1984.
-En 1975, Swarthout fait paraître Une gâchette (The Shootist) qui est, selon Claude Mesplède, « un des plus extraordinaires récits sur la mort de toute la littérature »[1]. Pour ce roman, il reçoit le Spur Award du meilleur roman de western 1975, décerné par la Western Writers of America. Le roman est adapté au cinéma par Don Siegel en 1976 sous le titre Le Dernier des géants.
+En 1975, Swarthout fait paraître Une gâchette (The Shootist) qui est, selon Claude Mesplède, « un des plus extraordinaires récits sur la mort de toute la littérature ». Pour ce roman, il reçoit le Spur Award du meilleur roman de western 1975, décerné par la Western Writers of America. Le roman est adapté au cinéma par Don Siegel en 1976 sous le titre Le Dernier des géants.
 The Homesman, publié en 1988, vaut à Swarthout un second Spur Award, ainsi que le Wrangler Award du meilleur roman de western 1988 de la Western Heritage Association.
 Il a également écrit plusieurs romans en collaboration avec sa femme, Kathryn Swarthout, dont Court-toujours (Whitchaway), paru en 1969.
 il meurt d'un emphysème pulmonaire en 1992.
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Willow Run (1943)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Willow Run (1943)
 They Came to Cordura (1958) Publié en français sous le titre Ceux de Cordura, traduit par Marie-Lise Marlière, Paris, Gallimard, coll. « Du monde entier », 1959
 Where the Boys Are (1960)
 Welcome to Thebes (1962)
@@ -564,18 +583,120 @@
 Skeletons (1979) Publié en français sous le titre Ré-percussions, traduit par France-Marie Watkins, Paris, Gallimard, coll. « Série noire » no 1772, 1980  (ISBN 2-07-048772-5) ; réédition de la même traduction sous le titre 11h14, Paris, Gallmeister, coll. « Totem », 2020  (ISBN 978-2-35178-573-7)
 The Old Colts (1985)
 The Homesman (1988) Publié en français sous le titre Le Chariot des damnés, traduit par Jacques Martinache, Paris, Presses de la Cité, 1992  (ISBN 2-258-02523-0) Publié en français dans une nouvelle traduction intégrale sous le titre Homesman, traduit pas Laura Derajinski, Paris, Gallmeister, coll. « Nature Writing », 2014  (ISBN 978-2-35178-076-3)
-Pinch Me, I Must Be Dreaming (1994)
-Littérature d’enfance et de jeunesse
-A Christmas Gift (1977), aussi paru sous le titre The Melodeon Publié en français sous le titre L'Harmonium, traduit par Rose-Marie Vassallo, Paris, Flammarion, coll. « Castor poche » no 33, 1981  (ISBN 2-08-161738-2)
-Romans coécrit avec Kathryn Swarthout
-The Ghost and Magic Saber (1963)
+Pinch Me, I Must Be Dreaming (1994)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Glendon_Swarthout</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glendon_Swarthout</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A Christmas Gift (1977), aussi paru sous le titre The Melodeon Publié en français sous le titre L'Harmonium, traduit par Rose-Marie Vassallo, Paris, Flammarion, coll. « Castor poche » no 33, 1981  (ISBN 2-08-161738-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Glendon_Swarthout</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glendon_Swarthout</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans coécrit avec Kathryn Swarthout</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Ghost and Magic Saber (1963)
 Whitchaway (1968) Publié en français sous le titre Court-toujours, traduit par Claude Elsen, Éditions Stock, 1969
 The Button Boat (1971)
 TV Thompson (1972)
 Whales To See The (1975)
-Cadbury’s Coffin (1982)
-Nouvelles
-Pancho Villa's One-Man War (1953)
+Cadbury’s Coffin (1982)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Glendon_Swarthout</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glendon_Swarthout</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pancho Villa's One-Man War (1953)
 What Every Man Knows (1956)
 A Glass of Blessings (1959)
 The Attack on the Mountain (1959)
@@ -585,71 +706,112 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Glendon_Swarthout</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Glendon_Swarthout</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Glendon_Swarthout</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glendon_Swarthout</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Au cinéma
-1956 : La Mission du capitaine Benson (7th Cavalry), film américain réalisé par Joseph H. Lewis, avec Randolph Scott
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1956 : La Mission du capitaine Benson (7th Cavalry), film américain réalisé par Joseph H. Lewis, avec Randolph Scott
 1959 : Ceux de Cordura (They Came to Cordura), film américain réalisé par Robert Rossen, d'après le roman éponyme, avec Gary Cooper, Rita Hayworth et Van Heflin
 1960 : Ces folles filles d'Ève (Where the Boys Are), film américain réalisé par Henry Levin, d'après le roman Where the Boys Are, avec Dolores Hart, George Hamilton et Yvette Mimieux
 1971 : Bless the Beasts and Children, film américain réalisé par Stanley Kramer, d'après le roman éponyme, avec Bill Mumy
 1976 : Le Dernier des géants (The Shootist), film américain réalisé par Don Siegel, d'après le roman The Shootist, avec John Wayne, Lauren Bacall et Ron Howard
 1984 : Where the Boys Are, film américain réalisé par Hy Averback, d'après le roman éponyme, avec Lisa Hartman
 1997 : Mulligans !, court métrage américain réalisé par Miles Hood Swarthout
-2014 : The Homesman, film américain réalisé par Tommy Lee Jones, adaptation du roman éponyme, avec Tommy Lee Jones et Hilary Swank
-À la télévision
-1978 : A Christmas to Remember (en), téléfilm américain réalisé par George Englund, d'après le roman A Christmas Gift, avec Jason Robards, Eva Marie Saint, George Parry et Joan Woodward</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Glendon_Swarthout</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Glendon_Swarthout</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+2014 : The Homesman, film américain réalisé par Tommy Lee Jones, adaptation du roman éponyme, avec Tommy Lee Jones et Hilary Swank</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Glendon_Swarthout</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glendon_Swarthout</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1978 : A Christmas to Remember (en), téléfilm américain réalisé par George Englund, d'après le roman A Christmas Gift, avec Jason Robards, Eva Marie Saint, George Parry et Joan Woodward</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Glendon_Swarthout</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glendon_Swarthout</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Prix du théâtre aux armées 1947
 Hopwood Awards (en) 1948
@@ -661,31 +823,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Glendon_Swarthout</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Glendon_Swarthout</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Glendon_Swarthout</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glendon_Swarthout</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 2 : J - Z, Nantes, Joseph K, coll. « Temps noir », 2007, 1086 p. (ISBN 978-2-910686-45-1, OCLC 315873361), p. 846.
 Claude Mesplède, Les années "Série noire" bibliographie critique d'une collection policière, t. 4 : 1972-1982, Amiens, Encrage, coll. « Travaux » (no 25), 1995, 318 p. (ISBN 978-2-906389-63-2).
